--- a/dataconfig/case.xlsx
+++ b/dataconfig/case.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
   <si>
     <t>用例名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,18 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2144333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,27 +109,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>headers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
+    <t>name1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>three</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>four</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>five</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>six</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证注册的用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5000/api/user/login/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5000/api/user/login/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5000/api/user/login/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,29 +611,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
+    <col min="3" max="3" width="47.75" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -533,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -547,16 +657,25 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -565,24 +684,24 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -591,24 +710,24 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -617,24 +736,24 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -643,21 +762,24 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -666,24 +788,24 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -692,10 +814,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>15</v>
@@ -710,4 +832,245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+</worksheet>
 </file>
--- a/dataconfig/case.xlsx
+++ b/dataconfig/case.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="reg" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
   <si>
     <t>用例名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,119 +137,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是否有依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证注册的用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5000/api/user/login/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:5000/api/user/login/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>one</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>two</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>three</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>four</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>five</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>six</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有依赖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证注册的用户登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:5000/api/user/login/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:5000/api/user/login/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:5000/api/user/login/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>you</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>one</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入用户名大小写相反</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确的用户名，错误的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误的用户名，正确的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名，密码都不输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或密码中有特殊字符（空格）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码用户名前后有空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -658,18 +714,18 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -692,10 +748,13 @@
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I2">
+        <v>100000</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -718,10 +777,13 @@
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="I3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -744,10 +806,13 @@
       <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="I4">
+        <v>10000</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -770,10 +835,13 @@
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="I5">
+        <v>10000</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -796,10 +864,13 @@
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="I6">
+        <v>10000</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -821,6 +892,9 @@
       </c>
       <c r="H7" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="I7">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -838,11 +912,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="42.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -876,65 +954,68 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>18</v>
@@ -945,19 +1026,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
@@ -968,18 +1052,23 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
@@ -989,18 +1078,23 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1010,18 +1104,23 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
       <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1031,18 +1130,23 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1052,12 +1156,43 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="G10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1066,11 +1201,9 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C6:C10" r:id="rId5" display="http://127.0.0.1:5000/api/user/login/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>